--- a/biology/Botanique/Eragrostis_secundiflora/Eragrostis_secundiflora.xlsx
+++ b/biology/Botanique/Eragrostis_secundiflora/Eragrostis_secundiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eragrostis secundiflora est une espèce de plantes monocotylédones de la famille des Poaceae,  sous-famille des Chloridoideae, originaire d'Amérique du Nord et du Sud.
-Ce sont des plantes herbacées, vivaces, cespiteuses, aux tiges (chaumes) dressées pouvant atteindre 75 cm de long. L'inflorescence est une panicule composée de nombreux épillets pouvant compter chacun jusqu'à 24 fleurons[2].
+Ce sont des plantes herbacées, vivaces, cespiteuses, aux tiges (chaumes) dressées pouvant atteindre 75 cm de long. L'inflorescence est une panicule composée de nombreux épillets pouvant compter chacun jusqu'à 24 fleurons.
 </t>
         </is>
       </c>
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (1er décembre 2017)[3] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (1er décembre 2017) :
 Eragrostis beyrichii J.G.Sm.
 Eragrostis compacta Steud.
 Eragrostis interrupta Trel., Branner &amp; Coville, nom. illeg.
@@ -534,8 +551,43 @@
 Poa interrupta Nutt., nom. illeg.
 Poa oxylepis Torr.
 Poa secundiflora (J.Presl) Kunth
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (1er décembre 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eragrostis_secundiflora</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eragrostis_secundiflora</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (1er décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèces :
 Eragrostis secundiflora subsp. oxylepis (Torr.) S.D. Koch
 Eragrostis secundiflora subsp. secundiflora
